--- a/data/data_raw/eurostat/AT_oil_en_bal_nrg_bal_c.xlsx
+++ b/data/data_raw/eurostat/AT_oil_en_bal_nrg_bal_c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM140"/>
+  <dimension ref="A1:AN140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,11 @@
           <t>2022</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -752,6 +757,9 @@
       </c>
       <c r="AM2" t="n">
         <v>6089.093</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5501.283</v>
       </c>
     </row>
     <row r="3">
@@ -882,6 +890,9 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1006,10 +1017,13 @@
         <v>159238.068</v>
       </c>
       <c r="AL4" t="n">
-        <v>157504.93</v>
+        <v>157504.616</v>
       </c>
       <c r="AM4" t="n">
-        <v>144845.933</v>
+        <v>144844.207</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>154379.694</v>
       </c>
     </row>
     <row r="5">
@@ -1135,10 +1149,13 @@
         <v>32203.221</v>
       </c>
       <c r="AL5" t="n">
-        <v>33575.187</v>
+        <v>33575.106</v>
       </c>
       <c r="AM5" t="n">
-        <v>19464.591</v>
+        <v>19464.39</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>27039.088</v>
       </c>
     </row>
     <row r="6">
@@ -1264,10 +1281,13 @@
         <v>-3366.584</v>
       </c>
       <c r="AL6" t="n">
-        <v>6572.914</v>
+        <v>6572.886</v>
       </c>
       <c r="AM6" t="n">
-        <v>915.854</v>
+        <v>915.774</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-513.312</v>
       </c>
     </row>
     <row r="7">
@@ -1393,10 +1413,13 @@
         <v>130305.346</v>
       </c>
       <c r="AL7" t="n">
-        <v>137135.632</v>
+        <v>137135.371</v>
       </c>
       <c r="AM7" t="n">
-        <v>132386.289</v>
+        <v>132384.685</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>132328.576</v>
       </c>
     </row>
     <row r="8">
@@ -1522,10 +1545,13 @@
         <v>159.069</v>
       </c>
       <c r="AL8" t="n">
-        <v>228.961</v>
+        <v>228.96</v>
       </c>
       <c r="AM8" t="n">
-        <v>224.845</v>
+        <v>120.917</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>115.484</v>
       </c>
     </row>
     <row r="9">
@@ -1651,10 +1677,13 @@
         <v>130146.276</v>
       </c>
       <c r="AL9" t="n">
-        <v>136906.671</v>
+        <v>136906.41</v>
       </c>
       <c r="AM9" t="n">
-        <v>132161.444</v>
+        <v>132263.768</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>132213.093</v>
       </c>
     </row>
     <row r="10">
@@ -1785,6 +1814,9 @@
       <c r="AM10" t="n">
         <v>7140.531</v>
       </c>
+      <c r="AN10" t="n">
+        <v>10056.497</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1909,10 +1941,13 @@
         <v>126446.448</v>
       </c>
       <c r="AL11" t="n">
-        <v>132217.846</v>
+        <v>132217.586</v>
       </c>
       <c r="AM11" t="n">
-        <v>125020.913</v>
+        <v>125123.237</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>122156.595</v>
       </c>
     </row>
     <row r="12">
@@ -1926,7 +1961,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gross inland consumption (Europe 2020-2030) [GIC2020-2030]</t>
+          <t>Gross inland consumption - Energy Efficiency Directive [GIC_EED]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1977,6 +2012,7 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1989,7 +2025,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Primary energy consumption (Europe 2020-2030) [PEC2020-2030]</t>
+          <t>Primary energy consumption - Energy Efficiency Directive [PEC_EED]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2040,6 +2076,7 @@
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2052,7 +2089,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Final energy consumption (Europe 2020-2030) [FEC2020-2030]</t>
+          <t>Final energy consumption - Energy Efficiency Directive [FEC_EED]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2103,6 +2140,7 @@
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2227,10 +2265,13 @@
         <v>107604.279</v>
       </c>
       <c r="AL15" t="n">
-        <v>105620.136</v>
+        <v>105696.491</v>
       </c>
       <c r="AM15" t="n">
-        <v>79425.855</v>
+        <v>79538.808</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>109441.599</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2397,13 @@
         <v>2498.42</v>
       </c>
       <c r="AL16" t="n">
-        <v>3443.846</v>
+        <v>3520.204</v>
       </c>
       <c r="AM16" t="n">
-        <v>2133.325</v>
+        <v>2246.284</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>2541.349</v>
       </c>
     </row>
     <row r="17">
@@ -2488,7 +2532,10 @@
         <v>25.79</v>
       </c>
       <c r="AM17" t="n">
-        <v>16.593</v>
+        <v>16.592</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>13.723</v>
       </c>
     </row>
     <row r="18">
@@ -2614,10 +2661,13 @@
         <v>82.97</v>
       </c>
       <c r="AL18" t="n">
-        <v>61.736</v>
+        <v>61.735</v>
       </c>
       <c r="AM18" t="n">
         <v>154.786</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>119.135</v>
       </c>
     </row>
     <row r="19">
@@ -2743,10 +2793,13 @@
         <v>122.434</v>
       </c>
       <c r="AL19" t="n">
-        <v>294.725</v>
+        <v>371.084</v>
       </c>
       <c r="AM19" t="n">
-        <v>318.147</v>
+        <v>431.108</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>394.694</v>
       </c>
     </row>
     <row r="20">
@@ -2875,7 +2928,10 @@
         <v>1735.782</v>
       </c>
       <c r="AM20" t="n">
-        <v>41.295</v>
+        <v>41.294</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="21">
@@ -3004,7 +3060,10 @@
         <v>1325.813</v>
       </c>
       <c r="AM21" t="n">
-        <v>1602.505</v>
+        <v>1602.504</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2008.597</v>
       </c>
     </row>
     <row r="22">
@@ -3133,6 +3192,9 @@
         <v>0</v>
       </c>
       <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3198,6 +3260,7 @@
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3261,6 +3324,7 @@
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3324,6 +3388,7 @@
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3387,6 +3452,7 @@
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3450,6 +3516,7 @@
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3579,6 +3646,9 @@
       <c r="AM28" t="n">
         <v>0</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3708,6 +3778,9 @@
       <c r="AM29" t="n">
         <v>0</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3837,6 +3910,9 @@
       <c r="AM30" t="n">
         <v>0</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3961,10 +4037,13 @@
         <v>105105.859</v>
       </c>
       <c r="AL31" t="n">
-        <v>102176.29</v>
+        <v>102176.287</v>
       </c>
       <c r="AM31" t="n">
-        <v>77292.53</v>
+        <v>77292.524</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>106900.25</v>
       </c>
     </row>
     <row r="32">
@@ -4095,6 +4174,9 @@
       <c r="AM32" t="n">
         <v>74116.152</v>
       </c>
+      <c r="AN32" t="n">
+        <v>100829.886</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4224,6 +4306,9 @@
       <c r="AM33" t="n">
         <v>0</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4348,10 +4433,13 @@
         <v>3570.903</v>
       </c>
       <c r="AL34" t="n">
-        <v>1606.32</v>
+        <v>1606.317</v>
       </c>
       <c r="AM34" t="n">
-        <v>3176.378</v>
+        <v>3176.372</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>6070.365</v>
       </c>
     </row>
     <row r="35">
@@ -4482,6 +4570,9 @@
       <c r="AM35" t="n">
         <v>0</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4611,6 +4702,9 @@
       <c r="AM36" t="n">
         <v>0</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4740,6 +4834,9 @@
       <c r="AM37" t="n">
         <v>0</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4867,6 +4964,9 @@
         <v>0</v>
       </c>
       <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,6 +5032,7 @@
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4995,6 +5096,7 @@
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -5122,6 +5224,9 @@
         <v>0</v>
       </c>
       <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5187,6 +5292,7 @@
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5250,6 +5356,7 @@
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5313,6 +5420,7 @@
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5442,6 +5550,9 @@
       <c r="AM45" t="n">
         <v>0</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5566,10 +5677,13 @@
         <v>102532.596</v>
       </c>
       <c r="AL46" t="n">
-        <v>99764.588</v>
+        <v>99764.345</v>
       </c>
       <c r="AM46" t="n">
-        <v>74915.764</v>
+        <v>74915.08900000001</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>102413.416</v>
       </c>
     </row>
     <row r="47">
@@ -5634,6 +5748,7 @@
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5697,6 +5812,7 @@
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5760,6 +5876,7 @@
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5823,6 +5940,7 @@
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5886,6 +6004,7 @@
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5949,6 +6068,7 @@
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6012,6 +6132,7 @@
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -6075,6 +6196,7 @@
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6138,6 +6260,7 @@
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6201,6 +6324,7 @@
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6264,6 +6388,7 @@
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6327,6 +6452,7 @@
       <c r="AK58" t="inlineStr"/>
       <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6390,6 +6516,7 @@
       <c r="AK59" t="inlineStr"/>
       <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6453,6 +6580,7 @@
       <c r="AK60" t="inlineStr"/>
       <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6577,10 +6705,13 @@
         <v>102532.596</v>
       </c>
       <c r="AL61" t="n">
-        <v>99764.588</v>
+        <v>99764.345</v>
       </c>
       <c r="AM61" t="n">
-        <v>74915.764</v>
+        <v>74915.08900000001</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>102413.416</v>
       </c>
     </row>
     <row r="62">
@@ -6706,10 +6837,13 @@
         <v>98948.70600000001</v>
       </c>
       <c r="AL62" t="n">
-        <v>98149.351</v>
+        <v>98149.10799999999</v>
       </c>
       <c r="AM62" t="n">
-        <v>71712.24099999999</v>
+        <v>71711.56600000001</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>96334.735</v>
       </c>
     </row>
     <row r="63">
@@ -6840,6 +6974,9 @@
       <c r="AM63" t="n">
         <v>0</v>
       </c>
+      <c r="AN63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6969,6 +7106,9 @@
       <c r="AM64" t="n">
         <v>3203.523</v>
       </c>
+      <c r="AN64" t="n">
+        <v>6078.681</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7098,6 +7238,9 @@
       <c r="AM65" t="n">
         <v>0</v>
       </c>
+      <c r="AN65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7227,6 +7370,9 @@
       <c r="AM66" t="n">
         <v>0</v>
       </c>
+      <c r="AN66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7354,6 +7500,9 @@
         <v>0</v>
       </c>
       <c r="AM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7419,6 +7568,7 @@
       <c r="AK68" t="inlineStr"/>
       <c r="AL68" t="inlineStr"/>
       <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7482,6 +7632,7 @@
       <c r="AK69" t="inlineStr"/>
       <c r="AL69" t="inlineStr"/>
       <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7609,6 +7760,9 @@
         <v>0</v>
       </c>
       <c r="AM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7674,6 +7828,7 @@
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7737,6 +7892,7 @@
       <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7800,6 +7956,7 @@
       <c r="AK73" t="inlineStr"/>
       <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7929,6 +8086,9 @@
       <c r="AM74" t="n">
         <v>0</v>
       </c>
+      <c r="AN74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8058,6 +8218,9 @@
       <c r="AM75" t="n">
         <v>0</v>
       </c>
+      <c r="AN75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8187,6 +8350,9 @@
       <c r="AM76" t="n">
         <v>5874.256</v>
       </c>
+      <c r="AN76" t="n">
+        <v>6394.424</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8316,6 +8482,9 @@
       <c r="AM77" t="n">
         <v>0</v>
       </c>
+      <c r="AN77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8445,6 +8614,9 @@
       <c r="AM78" t="n">
         <v>0</v>
       </c>
+      <c r="AN78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8572,6 +8744,9 @@
         <v>0</v>
       </c>
       <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8637,6 +8812,7 @@
       <c r="AK80" t="inlineStr"/>
       <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8764,6 +8940,9 @@
         <v>0</v>
       </c>
       <c r="AM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8829,6 +9008,7 @@
       <c r="AK82" t="inlineStr"/>
       <c r="AL82" t="inlineStr"/>
       <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8958,6 +9138,9 @@
       <c r="AM83" t="n">
         <v>0</v>
       </c>
+      <c r="AN83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -9087,6 +9270,9 @@
       <c r="AM84" t="n">
         <v>0</v>
       </c>
+      <c r="AN84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -9215,6 +9401,9 @@
       </c>
       <c r="AM85" t="n">
         <v>5874.256</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>6394.424</v>
       </c>
     </row>
     <row r="86">
@@ -9279,6 +9468,7 @@
       <c r="AK86" t="inlineStr"/>
       <c r="AL86" t="inlineStr"/>
       <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9342,6 +9532,7 @@
       <c r="AK87" t="inlineStr"/>
       <c r="AL87" t="inlineStr"/>
       <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -9405,6 +9596,7 @@
       <c r="AK88" t="inlineStr"/>
       <c r="AL88" t="inlineStr"/>
       <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9468,6 +9660,7 @@
       <c r="AK89" t="inlineStr"/>
       <c r="AL89" t="inlineStr"/>
       <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -9531,6 +9724,7 @@
       <c r="AK90" t="inlineStr"/>
       <c r="AL90" t="inlineStr"/>
       <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9594,6 +9788,7 @@
       <c r="AK91" t="inlineStr"/>
       <c r="AL91" t="inlineStr"/>
       <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -9723,6 +9918,9 @@
       <c r="AM92" t="n">
         <v>0</v>
       </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -9852,6 +10050,9 @@
       <c r="AM93" t="n">
         <v>0</v>
       </c>
+      <c r="AN93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -9976,10 +10177,13 @@
         <v>118157.439</v>
       </c>
       <c r="AL94" t="n">
-        <v>123556.751</v>
+        <v>123479.892</v>
       </c>
       <c r="AM94" t="n">
-        <v>114636.567</v>
+        <v>114625.263</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>108733.989</v>
       </c>
     </row>
     <row r="95">
@@ -10105,10 +10309,13 @@
         <v>19995.421</v>
       </c>
       <c r="AL95" t="n">
-        <v>20724.792</v>
+        <v>20741.69</v>
       </c>
       <c r="AM95" t="n">
-        <v>16789.41</v>
+        <v>16927.68</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>15850.401</v>
       </c>
     </row>
     <row r="96">
@@ -10234,10 +10441,13 @@
         <v>19838.056</v>
       </c>
       <c r="AL96" t="n">
-        <v>20485.151</v>
+        <v>20502.048</v>
       </c>
       <c r="AM96" t="n">
-        <v>16470.174</v>
+        <v>16608.444</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>15585.4</v>
       </c>
     </row>
     <row r="97">
@@ -10368,6 +10578,9 @@
       <c r="AM97" t="n">
         <v>0</v>
       </c>
+      <c r="AN97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -10497,6 +10710,9 @@
       <c r="AM98" t="n">
         <v>85.69</v>
       </c>
+      <c r="AN98" t="n">
+        <v>71.13</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -10621,10 +10837,13 @@
         <v>19795.826</v>
       </c>
       <c r="AL99" t="n">
-        <v>20420.825</v>
+        <v>20437.723</v>
       </c>
       <c r="AM99" t="n">
-        <v>16384.484</v>
+        <v>16522.754</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>15514.271</v>
       </c>
     </row>
     <row r="100">
@@ -10755,6 +10974,9 @@
       <c r="AM100" t="n">
         <v>300.333</v>
       </c>
+      <c r="AN100" t="n">
+        <v>249.314</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -10884,6 +11106,9 @@
       <c r="AM101" t="n">
         <v>18.903</v>
       </c>
+      <c r="AN101" t="n">
+        <v>15.687</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -11008,10 +11233,13 @@
         <v>98159.42600000001</v>
       </c>
       <c r="AL102" t="n">
-        <v>102815.528</v>
+        <v>102721.806</v>
       </c>
       <c r="AM102" t="n">
-        <v>97812.912</v>
+        <v>97663.338</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>92590.037</v>
       </c>
     </row>
     <row r="103">
@@ -11137,10 +11365,13 @@
         <v>3431.636</v>
       </c>
       <c r="AL103" t="n">
-        <v>3681.619</v>
+        <v>3707.932</v>
       </c>
       <c r="AM103" t="n">
-        <v>4853.569</v>
+        <v>4553.381</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>4709.347</v>
       </c>
     </row>
     <row r="104">
@@ -11266,10 +11497,13 @@
         <v>13.696</v>
       </c>
       <c r="AL104" t="n">
-        <v>19.863</v>
+        <v>95.577</v>
       </c>
       <c r="AM104" t="n">
-        <v>229.654</v>
+        <v>108.431</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>112.268</v>
       </c>
     </row>
     <row r="105">
@@ -11395,10 +11629,13 @@
         <v>197.144</v>
       </c>
       <c r="AL105" t="n">
-        <v>119.751</v>
+        <v>121.833</v>
       </c>
       <c r="AM105" t="n">
-        <v>161.931</v>
+        <v>161.715</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>147.048</v>
       </c>
     </row>
     <row r="106">
@@ -11524,10 +11761,13 @@
         <v>35.997</v>
       </c>
       <c r="AL106" t="n">
-        <v>40.793</v>
+        <v>40.816</v>
       </c>
       <c r="AM106" t="n">
-        <v>38.476</v>
+        <v>38.475</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>39.349</v>
       </c>
     </row>
     <row r="107">
@@ -11653,10 +11893,13 @@
         <v>447.256</v>
       </c>
       <c r="AL107" t="n">
-        <v>584.453</v>
+        <v>587.372</v>
       </c>
       <c r="AM107" t="n">
-        <v>602.273</v>
+        <v>602.0839999999999</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>682.491</v>
       </c>
     </row>
     <row r="108">
@@ -11782,10 +12025,13 @@
         <v>28.693</v>
       </c>
       <c r="AL108" t="n">
-        <v>32.543</v>
+        <v>31.796</v>
       </c>
       <c r="AM108" t="n">
-        <v>54.313</v>
+        <v>54.288</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>46.874</v>
       </c>
     </row>
     <row r="109">
@@ -11911,10 +12157,13 @@
         <v>250.538</v>
       </c>
       <c r="AL109" t="n">
-        <v>289.794</v>
+        <v>287.076</v>
       </c>
       <c r="AM109" t="n">
-        <v>263.694</v>
+        <v>263.528</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>237.148</v>
       </c>
     </row>
     <row r="110">
@@ -12040,10 +12289,13 @@
         <v>92.976</v>
       </c>
       <c r="AL110" t="n">
-        <v>75.90000000000001</v>
+        <v>76.73099999999999</v>
       </c>
       <c r="AM110" t="n">
-        <v>229.696</v>
+        <v>82.789</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>76.26300000000001</v>
       </c>
     </row>
     <row r="111">
@@ -12169,10 +12421,13 @@
         <v>112.632</v>
       </c>
       <c r="AL111" t="n">
-        <v>132.188</v>
+        <v>133.929</v>
       </c>
       <c r="AM111" t="n">
-        <v>332.124</v>
+        <v>330.522</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>455.024</v>
       </c>
     </row>
     <row r="112">
@@ -12298,10 +12553,13 @@
         <v>37.748</v>
       </c>
       <c r="AL112" t="n">
-        <v>44.228</v>
+        <v>44.863</v>
       </c>
       <c r="AM112" t="n">
-        <v>81.512</v>
+        <v>81.292</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>102.843</v>
       </c>
     </row>
     <row r="113">
@@ -12427,10 +12685,13 @@
         <v>64.913</v>
       </c>
       <c r="AL113" t="n">
-        <v>51.542</v>
+        <v>51.698</v>
       </c>
       <c r="AM113" t="n">
-        <v>52.654</v>
+        <v>52.604</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>41.783</v>
       </c>
     </row>
     <row r="114">
@@ -12556,10 +12817,13 @@
         <v>2118.436</v>
       </c>
       <c r="AL114" t="n">
-        <v>2229.281</v>
+        <v>2173.811</v>
       </c>
       <c r="AM114" t="n">
-        <v>2763.087</v>
+        <v>2733.726</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>2724.281</v>
       </c>
     </row>
     <row r="115">
@@ -12685,10 +12949,13 @@
         <v>3.622</v>
       </c>
       <c r="AL115" t="n">
-        <v>4.489</v>
+        <v>4.545</v>
       </c>
       <c r="AM115" t="n">
-        <v>3.02</v>
+        <v>3.007</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>5.59</v>
       </c>
     </row>
     <row r="116">
@@ -12814,10 +13081,13 @@
         <v>27.983</v>
       </c>
       <c r="AL116" t="n">
-        <v>56.792</v>
+        <v>57.887</v>
       </c>
       <c r="AM116" t="n">
-        <v>41.134</v>
+        <v>40.919</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>38.385</v>
       </c>
     </row>
     <row r="117">
@@ -12943,10 +13213,13 @@
         <v>79271.673</v>
       </c>
       <c r="AL117" t="n">
-        <v>82509.954</v>
+        <v>82426.628</v>
       </c>
       <c r="AM117" t="n">
-        <v>78455.42200000001</v>
+        <v>78657.61</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>76201.745</v>
       </c>
     </row>
     <row r="118">
@@ -13072,10 +13345,13 @@
         <v>322.701</v>
       </c>
       <c r="AL118" t="n">
-        <v>322.019</v>
+        <v>322.017</v>
       </c>
       <c r="AM118" t="n">
-        <v>319.745</v>
+        <v>319.736</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>293.838</v>
       </c>
     </row>
     <row r="119">
@@ -13201,10 +13477,13 @@
         <v>78663.005</v>
       </c>
       <c r="AL119" t="n">
-        <v>81856.92999999999</v>
+        <v>81773.60799999999</v>
       </c>
       <c r="AM119" t="n">
-        <v>77680.10000000001</v>
+        <v>77853.651</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>75412.25</v>
       </c>
     </row>
     <row r="120">
@@ -13335,6 +13614,9 @@
       <c r="AM120" t="n">
         <v>210.955</v>
       </c>
+      <c r="AN120" t="n">
+        <v>214.981</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -13459,10 +13741,13 @@
         <v>91.91800000000001</v>
       </c>
       <c r="AL121" t="n">
-        <v>139.977</v>
+        <v>139.976</v>
       </c>
       <c r="AM121" t="n">
-        <v>244.621</v>
+        <v>273.267</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>280.677</v>
       </c>
     </row>
     <row r="122">
@@ -13593,6 +13878,9 @@
       <c r="AM122" t="n">
         <v>0</v>
       </c>
+      <c r="AN122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -13722,6 +14010,9 @@
       <c r="AM123" t="n">
         <v>0</v>
       </c>
+      <c r="AN123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -13846,10 +14137,13 @@
         <v>15456.117</v>
       </c>
       <c r="AL124" t="n">
-        <v>16623.956</v>
+        <v>16587.247</v>
       </c>
       <c r="AM124" t="n">
-        <v>14503.921</v>
+        <v>14452.348</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>11678.944</v>
       </c>
     </row>
     <row r="125">
@@ -13975,10 +14269,13 @@
         <v>1987.568</v>
       </c>
       <c r="AL125" t="n">
-        <v>2498.529</v>
+        <v>2484.713</v>
       </c>
       <c r="AM125" t="n">
-        <v>2147.698</v>
+        <v>2131.742</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1257.642</v>
       </c>
     </row>
     <row r="126">
@@ -14104,10 +14401,13 @@
         <v>10961.368</v>
       </c>
       <c r="AL126" t="n">
-        <v>11568.201</v>
+        <v>11492.671</v>
       </c>
       <c r="AM126" t="n">
-        <v>9811.252</v>
+        <v>9723.512000000001</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>7887.309</v>
       </c>
     </row>
     <row r="127">
@@ -14233,10 +14533,13 @@
         <v>2507.182</v>
       </c>
       <c r="AL127" t="n">
-        <v>2550.525</v>
+        <v>2602.382</v>
       </c>
       <c r="AM127" t="n">
-        <v>2538.233</v>
+        <v>2589.434</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>2526.243</v>
       </c>
     </row>
     <row r="128">
@@ -14362,10 +14665,13 @@
         <v>0</v>
       </c>
       <c r="AL128" t="n">
-        <v>6.701</v>
+        <v>7.48</v>
       </c>
       <c r="AM128" t="n">
-        <v>6.738</v>
+        <v>7.66</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>7.751</v>
       </c>
     </row>
     <row r="129">
@@ -14496,6 +14802,9 @@
       <c r="AM129" t="n">
         <v>0</v>
       </c>
+      <c r="AN129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -14620,10 +14929,13 @@
         <v>2.591</v>
       </c>
       <c r="AL130" t="n">
-        <v>16.431</v>
+        <v>16.396</v>
       </c>
       <c r="AM130" t="n">
         <v>34.244</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>293.551</v>
       </c>
     </row>
     <row r="131">
@@ -14754,6 +15066,9 @@
       <c r="AM131" t="n">
         <v>665.53</v>
       </c>
+      <c r="AN131" t="n">
+        <v>781.3049999999999</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -14883,6 +15198,9 @@
       <c r="AM132" t="n">
         <v>2.412</v>
       </c>
+      <c r="AN132" t="n">
+        <v>1.904</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -15012,6 +15330,9 @@
       <c r="AM133" t="n">
         <v>23.036</v>
       </c>
+      <c r="AN133" t="n">
+        <v>17.246</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -15141,6 +15462,9 @@
       <c r="AM134" t="n">
         <v>16.398</v>
       </c>
+      <c r="AN134" t="n">
+        <v>2.242</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -15270,6 +15594,9 @@
       <c r="AM135" t="n">
         <v>623.684</v>
       </c>
+      <c r="AN135" t="n">
+        <v>759.913</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -15394,10 +15721,13 @@
         <v>703.704</v>
       </c>
       <c r="AL136" t="n">
-        <v>910.965</v>
+        <v>980.138</v>
       </c>
       <c r="AM136" t="n">
-        <v>895.225</v>
+        <v>998.938</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1119.164</v>
       </c>
     </row>
     <row r="137">
@@ -15528,6 +15858,9 @@
       <c r="AM137" t="n">
         <v>112.924</v>
       </c>
+      <c r="AN137" t="n">
+        <v>84.462</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -15652,10 +15985,13 @@
         <v>108.666</v>
       </c>
       <c r="AL138" t="n">
-        <v>273.106</v>
+        <v>342.278</v>
       </c>
       <c r="AM138" t="n">
-        <v>295.673</v>
+        <v>399.386</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>357.849</v>
       </c>
     </row>
     <row r="139">
@@ -15786,6 +16122,9 @@
       <c r="AM139" t="n">
         <v>486.628</v>
       </c>
+      <c r="AN139" t="n">
+        <v>676.852</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -15913,6 +16252,9 @@
         <v>0</v>
       </c>
       <c r="AM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN140" t="n">
         <v>0</v>
       </c>
     </row>
